--- a/Projects/Penny_cash/dataset.xlsx
+++ b/Projects/Penny_cash/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ia\Projects\Penny_cash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AD26CE-5358-45D8-A361-79B8FEDC83E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A587498C-016B-4307-A817-5920F0EFF966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27615" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6585" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="685">
   <si>
     <t>ReducedAccount</t>
   </si>
@@ -2066,279 +2066,6 @@
   </si>
   <si>
     <t>Vlr. Ref. Pgto Nf/Fat N 99052-E1 Panificadora Gustapao Ltda - Epp</t>
-  </si>
-  <si>
-    <t>1.01.01.001.0002</t>
-  </si>
-  <si>
-    <t>Caixa - Aquisição Dólar</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Devolução De Crédito - Luciano Carstens</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Cambial Taxa Dia 31/01/2022 5,3574</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variacao Cambial Taxa 25/02/2022 5,1394</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Devolução De Crédito - Carlos Eduardo Ribas</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Devolução De Crédito - Luiz Fernando Vianna</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Devolução De Crédito - Jefferson Chapieski</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Em Caixa 16.539,47 Dolares</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Adto Ana Paula Oening</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Credito Variação Cambial Taxa 29/04 4,9191</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Adto Luiz Fernando Vianna</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Adto Jefferson Chapieski</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Cambial Taxa 31/05/2022 4,7289</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Credito Variação Cambial Taxa 30/06/2022 Dolares</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Adto Carlos Olavo Slota Ovelar</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Adto Paulo Henrique Cabral Dettmer</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Devolução De Crédito - Carlos Olavo Slota Ovelar</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Devolução De Crédito - Paulo Henrique Cabral Dettmer</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Credito Variação Cambial Taxa 29/07/2022 Dolares</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Cambial Taxa 31/08/2022 5,1790</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Adto Carlos Eduardo Ribas</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Credito Variação Cambial Taxa 30/09/2022 Dolares</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Cambial Taxa 5,2570 Em 31/10/2022</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Credtio Variação Cambial Taxa 30/11/2022 Dolares</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Compra De Moeda Estrangeira Dólar 3880,00 Dolares</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Iof Ref Compra Moeda Estrangeira Dólar 3880,00 Taxa 5,53 Taxa Real 5,4698325</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Adto Marcelo Machado</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Compra Moeda Estrangeira 50,00 Dolares Cotação 5,58</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Iof Ref Compra Moeda Estrangeira Dólar 50,00 Taxa 5,58 Taxa Real 5,5192</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Cambial Taxa 5,2177 30/12/2022</t>
-  </si>
-  <si>
-    <t>1.01.01.001.0003</t>
-  </si>
-  <si>
-    <t>Caixa Euro</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Cambial Taxa 31/01/2022 6,0073</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variacao Cambial Taxa 25/02/2022 5,7803</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Cambial Taxa 5,2561 31/03/2022</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Caixa 36,81 Euros</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Cambial Taxa 31/05/2022 5,0755</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Adto Marcelo Yudi Minoda Takenobu</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Compra De Moeda Estrangeira Euro 2920,00 Cotação 5,64</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Iof Ref Compra De Moeda Estrangeira Euro</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Credito Variação Cambial Taxa 30/06/2022</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Cambial Taxa 29/07/2022 5,2937</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Cambial Taxa 31/08/2022 5,2127</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Adto Fabio Scussiato Richart</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Compra Moeda Estrangeira 1220,00 Euros Cot 5,45</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Debito Iof Ref Compra De Moeda Estrangeira Euro Cotação 5,45 Bruto, Liquido 5,3907 Valor 1220,00</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Credito Variação Cambial Taxa 30/09/2022</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Cambial Taxa Em 31/10/2022 5,1976</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Compra Moeda Estrangeira Euro</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Iof Ref Compra Moeda Estrangeira Euro Ref 2230,00 Euros</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Compra Moeda Estrangeira Euro 700,00</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Iof Ref Compra Moeda Estrangeira Euro 700,00</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Credito Variação Cambial Taxa 30/11/2022</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Credito Variação Cambial Taxa 5,5694 Euros</t>
-  </si>
-  <si>
-    <t>1.01.01.001.0006</t>
-  </si>
-  <si>
-    <t>Caixa Libra</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Cambial Taxa 31/01/2022 7,1907</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variacao Cambial Taxa 25/02/2022 6,8955</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Cambial Taxa 6,2307 31/03/2022</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Cambial Taxa 29/04/2022 6,1808</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variacao Cambial Taxa Dia 31/05/2022 5,9702</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Cambial Taxa 29/07/2022 6,3215</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Cambial Taxa 31/08/2022 6,0309</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Debito Variação Cambial Taxa 30/09/2022 6,0197</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Atual. Monet. Credito Variação Cambial Taxa 31/10/2022</t>
-  </si>
-  <si>
-    <t>1.01.01.001.0016</t>
-  </si>
-  <si>
-    <t>Caixa Fundo Fixo Karla</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Devolução Do Saldo Kls</t>
-  </si>
-  <si>
-    <t>1.01.01.001.0018</t>
-  </si>
-  <si>
-    <t>Caixa Eduardo Barbosa Guimaraes</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Recarga Cartao</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Transf. Entre Filiais</t>
-  </si>
-  <si>
-    <t>1.01.01.001.0019</t>
-  </si>
-  <si>
-    <t>Caixa Sodexo VR/VA</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Creditos De Cartões Sem Utilização</t>
-  </si>
-  <si>
-    <t>Pagamento A Fornecedor</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Reposição Caixa Sodexo Nf 521922</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Credito Ref Cartões Resgatados</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Recarga Caixa Sodexo Notas 876914/876915</t>
-  </si>
-  <si>
-    <t>1.01.01.001.0020</t>
-  </si>
-  <si>
-    <t>Caixa VT</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Recarga Caixinha Urbs Nº Doc 28538420008677843</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Saldo Inicial Na Conta Urbs</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Recarga Caixinha Vt Urbs</t>
-  </si>
-  <si>
-    <t>1.01.01.001.0021</t>
-  </si>
-  <si>
-    <t>Caixa Emerson</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Recarga Cartão Emerson</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Recarga Cartão Pre Pago Emerson</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Recarga Cartao Emerson</t>
-  </si>
-  <si>
-    <t>Vlr. Ref. Recarga Ecartão Prepago Emerson</t>
   </si>
   <si>
     <t>Vlr. Ref. Pgto Nf/Fat N 184777-E1 Cia Beal De Alimentos Fraude</t>
@@ -3192,11 +2919,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I821"/>
+  <dimension ref="A1:I688"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A454" workbookViewId="0">
-      <selection activeCell="E461" sqref="E461"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12327,7 +12052,7 @@
         <v>44726</v>
       </c>
       <c r="E351" t="s">
-        <v>773</v>
+        <v>682</v>
       </c>
       <c r="G351">
         <v>41889</v>
@@ -14095,7 +13820,7 @@
         <v>44749</v>
       </c>
       <c r="E419" t="s">
-        <v>774</v>
+        <v>683</v>
       </c>
       <c r="G419">
         <v>42102</v>
@@ -15161,7 +14886,7 @@
         <v>44784</v>
       </c>
       <c r="E460" t="s">
-        <v>775</v>
+        <v>684</v>
       </c>
       <c r="G460">
         <v>42283</v>
@@ -21099,3677 +20824,6 @@
       </c>
       <c r="I688" s="1">
         <v>0</v>
-      </c>
-    </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A689" s="2">
-        <v>6</v>
-      </c>
-      <c r="B689" t="s">
-        <v>682</v>
-      </c>
-      <c r="C689" t="s">
-        <v>683</v>
-      </c>
-      <c r="D689">
-        <v>44575</v>
-      </c>
-      <c r="E689" t="s">
-        <v>684</v>
-      </c>
-      <c r="F689">
-        <v>33</v>
-      </c>
-      <c r="G689">
-        <v>40912</v>
-      </c>
-      <c r="H689" s="1">
-        <v>22843.599999999999</v>
-      </c>
-      <c r="I689" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A690" s="2">
-        <v>6</v>
-      </c>
-      <c r="B690" t="s">
-        <v>682</v>
-      </c>
-      <c r="C690" t="s">
-        <v>683</v>
-      </c>
-      <c r="D690">
-        <v>44592</v>
-      </c>
-      <c r="E690" t="s">
-        <v>685</v>
-      </c>
-      <c r="F690">
-        <v>373</v>
-      </c>
-      <c r="G690">
-        <v>40935</v>
-      </c>
-      <c r="H690" s="1">
-        <v>0</v>
-      </c>
-      <c r="I690" s="1">
-        <v>2540.63</v>
-      </c>
-    </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A691" s="2">
-        <v>6</v>
-      </c>
-      <c r="B691" t="s">
-        <v>682</v>
-      </c>
-      <c r="C691" t="s">
-        <v>683</v>
-      </c>
-      <c r="D691">
-        <v>44617</v>
-      </c>
-      <c r="E691" t="s">
-        <v>686</v>
-      </c>
-      <c r="F691">
-        <v>373</v>
-      </c>
-      <c r="G691">
-        <v>41169</v>
-      </c>
-      <c r="H691" s="1">
-        <v>0</v>
-      </c>
-      <c r="I691" s="1">
-        <v>991.35</v>
-      </c>
-    </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A692" s="2">
-        <v>6</v>
-      </c>
-      <c r="B692" t="s">
-        <v>682</v>
-      </c>
-      <c r="C692" t="s">
-        <v>683</v>
-      </c>
-      <c r="D692">
-        <v>44630</v>
-      </c>
-      <c r="E692" t="s">
-        <v>687</v>
-      </c>
-      <c r="F692">
-        <v>33</v>
-      </c>
-      <c r="G692">
-        <v>41185</v>
-      </c>
-      <c r="H692" s="1">
-        <v>24189.119999999999</v>
-      </c>
-      <c r="I692" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A693" s="2">
-        <v>6</v>
-      </c>
-      <c r="B693" t="s">
-        <v>682</v>
-      </c>
-      <c r="C693" t="s">
-        <v>683</v>
-      </c>
-      <c r="D693">
-        <v>44635</v>
-      </c>
-      <c r="E693" t="s">
-        <v>688</v>
-      </c>
-      <c r="F693">
-        <v>33</v>
-      </c>
-      <c r="G693">
-        <v>41191</v>
-      </c>
-      <c r="H693" s="1">
-        <v>24189.119999999999</v>
-      </c>
-      <c r="I693" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A694" s="2">
-        <v>6</v>
-      </c>
-      <c r="B694" t="s">
-        <v>682</v>
-      </c>
-      <c r="C694" t="s">
-        <v>683</v>
-      </c>
-      <c r="D694">
-        <v>44635</v>
-      </c>
-      <c r="E694" t="s">
-        <v>689</v>
-      </c>
-      <c r="F694">
-        <v>33</v>
-      </c>
-      <c r="G694">
-        <v>41191</v>
-      </c>
-      <c r="H694" s="1">
-        <v>22614.400000000001</v>
-      </c>
-      <c r="I694" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A695" s="2">
-        <v>6</v>
-      </c>
-      <c r="B695" t="s">
-        <v>682</v>
-      </c>
-      <c r="C695" t="s">
-        <v>683</v>
-      </c>
-      <c r="D695">
-        <v>44651</v>
-      </c>
-      <c r="E695" t="s">
-        <v>690</v>
-      </c>
-      <c r="F695">
-        <v>373</v>
-      </c>
-      <c r="G695">
-        <v>41379</v>
-      </c>
-      <c r="H695" s="1">
-        <v>0</v>
-      </c>
-      <c r="I695" s="1">
-        <v>16003.21</v>
-      </c>
-    </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A696" s="2">
-        <v>6</v>
-      </c>
-      <c r="B696" t="s">
-        <v>682</v>
-      </c>
-      <c r="C696" t="s">
-        <v>683</v>
-      </c>
-      <c r="D696">
-        <v>44664</v>
-      </c>
-      <c r="E696" t="s">
-        <v>691</v>
-      </c>
-      <c r="F696">
-        <v>33</v>
-      </c>
-      <c r="G696">
-        <v>41499</v>
-      </c>
-      <c r="H696" s="1">
-        <v>0</v>
-      </c>
-      <c r="I696" s="1">
-        <v>3861.91</v>
-      </c>
-    </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A697" s="2">
-        <v>6</v>
-      </c>
-      <c r="B697" t="s">
-        <v>682</v>
-      </c>
-      <c r="C697" t="s">
-        <v>683</v>
-      </c>
-      <c r="D697">
-        <v>44680</v>
-      </c>
-      <c r="E697" t="s">
-        <v>692</v>
-      </c>
-      <c r="F697">
-        <v>367</v>
-      </c>
-      <c r="G697">
-        <v>41553</v>
-      </c>
-      <c r="H697" s="1">
-        <v>2802.26</v>
-      </c>
-      <c r="I697" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A698" s="2">
-        <v>6</v>
-      </c>
-      <c r="B698" t="s">
-        <v>682</v>
-      </c>
-      <c r="C698" t="s">
-        <v>683</v>
-      </c>
-      <c r="D698">
-        <v>44686</v>
-      </c>
-      <c r="E698" t="s">
-        <v>693</v>
-      </c>
-      <c r="F698">
-        <v>33</v>
-      </c>
-      <c r="G698">
-        <v>41676</v>
-      </c>
-      <c r="H698" s="1">
-        <v>0</v>
-      </c>
-      <c r="I698" s="1">
-        <v>7732.88</v>
-      </c>
-    </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A699" s="2">
-        <v>6</v>
-      </c>
-      <c r="B699" t="s">
-        <v>682</v>
-      </c>
-      <c r="C699" t="s">
-        <v>683</v>
-      </c>
-      <c r="D699">
-        <v>44697</v>
-      </c>
-      <c r="E699" t="s">
-        <v>694</v>
-      </c>
-      <c r="F699">
-        <v>33</v>
-      </c>
-      <c r="G699">
-        <v>41691</v>
-      </c>
-      <c r="H699" s="1">
-        <v>0</v>
-      </c>
-      <c r="I699" s="1">
-        <v>17327.78</v>
-      </c>
-    </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A700" s="2">
-        <v>6</v>
-      </c>
-      <c r="B700" t="s">
-        <v>682</v>
-      </c>
-      <c r="C700" t="s">
-        <v>683</v>
-      </c>
-      <c r="D700">
-        <v>44712</v>
-      </c>
-      <c r="E700" t="s">
-        <v>695</v>
-      </c>
-      <c r="F700">
-        <v>373</v>
-      </c>
-      <c r="G700">
-        <v>41757</v>
-      </c>
-      <c r="H700" s="1">
-        <v>0</v>
-      </c>
-      <c r="I700" s="1">
-        <v>1407.22</v>
-      </c>
-    </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A701" s="2">
-        <v>6</v>
-      </c>
-      <c r="B701" t="s">
-        <v>682</v>
-      </c>
-      <c r="C701" t="s">
-        <v>683</v>
-      </c>
-      <c r="D701">
-        <v>44741</v>
-      </c>
-      <c r="E701" t="s">
-        <v>688</v>
-      </c>
-      <c r="F701">
-        <v>33</v>
-      </c>
-      <c r="G701">
-        <v>41925</v>
-      </c>
-      <c r="H701" s="1">
-        <v>1364.58</v>
-      </c>
-      <c r="I701" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A702" s="2">
-        <v>6</v>
-      </c>
-      <c r="B702" t="s">
-        <v>682</v>
-      </c>
-      <c r="C702" t="s">
-        <v>683</v>
-      </c>
-      <c r="D702">
-        <v>44741</v>
-      </c>
-      <c r="E702" t="s">
-        <v>689</v>
-      </c>
-      <c r="F702">
-        <v>33</v>
-      </c>
-      <c r="G702">
-        <v>41925</v>
-      </c>
-      <c r="H702" s="1">
-        <v>2832.96</v>
-      </c>
-      <c r="I702" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A703" s="2">
-        <v>6</v>
-      </c>
-      <c r="B703" t="s">
-        <v>682</v>
-      </c>
-      <c r="C703" t="s">
-        <v>683</v>
-      </c>
-      <c r="D703">
-        <v>44742</v>
-      </c>
-      <c r="E703" t="s">
-        <v>696</v>
-      </c>
-      <c r="F703">
-        <v>367</v>
-      </c>
-      <c r="G703">
-        <v>41927</v>
-      </c>
-      <c r="H703" s="1">
-        <v>5465.42</v>
-      </c>
-      <c r="I703" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A704" s="2">
-        <v>6</v>
-      </c>
-      <c r="B704" t="s">
-        <v>682</v>
-      </c>
-      <c r="C704" t="s">
-        <v>683</v>
-      </c>
-      <c r="D704">
-        <v>44754</v>
-      </c>
-      <c r="E704" t="s">
-        <v>697</v>
-      </c>
-      <c r="F704">
-        <v>33</v>
-      </c>
-      <c r="G704">
-        <v>42109</v>
-      </c>
-      <c r="H704" s="1">
-        <v>0</v>
-      </c>
-      <c r="I704" s="1">
-        <v>16898.73</v>
-      </c>
-    </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A705" s="2">
-        <v>6</v>
-      </c>
-      <c r="B705" t="s">
-        <v>682</v>
-      </c>
-      <c r="C705" t="s">
-        <v>683</v>
-      </c>
-      <c r="D705">
-        <v>44754</v>
-      </c>
-      <c r="E705" t="s">
-        <v>698</v>
-      </c>
-      <c r="F705">
-        <v>33</v>
-      </c>
-      <c r="G705">
-        <v>42109</v>
-      </c>
-      <c r="H705" s="1">
-        <v>0</v>
-      </c>
-      <c r="I705" s="1">
-        <v>16898.73</v>
-      </c>
-    </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A706" s="2">
-        <v>6</v>
-      </c>
-      <c r="B706" t="s">
-        <v>682</v>
-      </c>
-      <c r="C706" t="s">
-        <v>683</v>
-      </c>
-      <c r="D706">
-        <v>44770</v>
-      </c>
-      <c r="E706" t="s">
-        <v>699</v>
-      </c>
-      <c r="F706">
-        <v>33</v>
-      </c>
-      <c r="G706">
-        <v>42172</v>
-      </c>
-      <c r="H706" s="1">
-        <v>1313.4</v>
-      </c>
-      <c r="I706" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A707" s="2">
-        <v>6</v>
-      </c>
-      <c r="B707" t="s">
-        <v>682</v>
-      </c>
-      <c r="C707" t="s">
-        <v>683</v>
-      </c>
-      <c r="D707">
-        <v>44770</v>
-      </c>
-      <c r="E707" t="s">
-        <v>700</v>
-      </c>
-      <c r="F707">
-        <v>33</v>
-      </c>
-      <c r="G707">
-        <v>42172</v>
-      </c>
-      <c r="H707" s="1">
-        <v>1083.2</v>
-      </c>
-      <c r="I707" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A708" s="2">
-        <v>6</v>
-      </c>
-      <c r="B708" t="s">
-        <v>682</v>
-      </c>
-      <c r="C708" t="s">
-        <v>683</v>
-      </c>
-      <c r="D708">
-        <v>44771</v>
-      </c>
-      <c r="E708" t="s">
-        <v>701</v>
-      </c>
-      <c r="F708">
-        <v>367</v>
-      </c>
-      <c r="G708">
-        <v>42174</v>
-      </c>
-      <c r="H708" s="1">
-        <v>357.05</v>
-      </c>
-      <c r="I708" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A709" s="2">
-        <v>6</v>
-      </c>
-      <c r="B709" t="s">
-        <v>682</v>
-      </c>
-      <c r="C709" t="s">
-        <v>683</v>
-      </c>
-      <c r="D709">
-        <v>44804</v>
-      </c>
-      <c r="E709" t="s">
-        <v>702</v>
-      </c>
-      <c r="F709">
-        <v>373</v>
-      </c>
-      <c r="G709">
-        <v>42346</v>
-      </c>
-      <c r="H709" s="1">
-        <v>0</v>
-      </c>
-      <c r="I709" s="1">
-        <v>53.36</v>
-      </c>
-    </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A710" s="2">
-        <v>6</v>
-      </c>
-      <c r="B710" t="s">
-        <v>682</v>
-      </c>
-      <c r="C710" t="s">
-        <v>683</v>
-      </c>
-      <c r="D710">
-        <v>44816</v>
-      </c>
-      <c r="E710" t="s">
-        <v>693</v>
-      </c>
-      <c r="F710">
-        <v>33</v>
-      </c>
-      <c r="G710">
-        <v>42499</v>
-      </c>
-      <c r="H710" s="1">
-        <v>0</v>
-      </c>
-      <c r="I710" s="1">
-        <v>7227.04</v>
-      </c>
-    </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A711" s="2">
-        <v>6</v>
-      </c>
-      <c r="B711" t="s">
-        <v>682</v>
-      </c>
-      <c r="C711" t="s">
-        <v>683</v>
-      </c>
-      <c r="D711">
-        <v>44816</v>
-      </c>
-      <c r="E711" t="s">
-        <v>703</v>
-      </c>
-      <c r="F711">
-        <v>33</v>
-      </c>
-      <c r="G711">
-        <v>42499</v>
-      </c>
-      <c r="H711" s="1">
-        <v>0</v>
-      </c>
-      <c r="I711" s="1">
-        <v>11772.09</v>
-      </c>
-    </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A712" s="2">
-        <v>6</v>
-      </c>
-      <c r="B712" t="s">
-        <v>682</v>
-      </c>
-      <c r="C712" t="s">
-        <v>683</v>
-      </c>
-      <c r="D712">
-        <v>44816</v>
-      </c>
-      <c r="E712" t="s">
-        <v>703</v>
-      </c>
-      <c r="F712">
-        <v>33</v>
-      </c>
-      <c r="G712">
-        <v>42499</v>
-      </c>
-      <c r="H712" s="1">
-        <v>0</v>
-      </c>
-      <c r="I712" s="1">
-        <v>3070.98</v>
-      </c>
-    </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A713" s="2">
-        <v>6</v>
-      </c>
-      <c r="B713" t="s">
-        <v>682</v>
-      </c>
-      <c r="C713" t="s">
-        <v>683</v>
-      </c>
-      <c r="D713">
-        <v>44834</v>
-      </c>
-      <c r="E713" t="s">
-        <v>704</v>
-      </c>
-      <c r="F713">
-        <v>367</v>
-      </c>
-      <c r="G713">
-        <v>42568</v>
-      </c>
-      <c r="H713" s="1">
-        <v>48.84</v>
-      </c>
-      <c r="I713" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A714" s="2">
-        <v>6</v>
-      </c>
-      <c r="B714" t="s">
-        <v>682</v>
-      </c>
-      <c r="C714" t="s">
-        <v>683</v>
-      </c>
-      <c r="D714">
-        <v>44847</v>
-      </c>
-      <c r="E714" t="s">
-        <v>687</v>
-      </c>
-      <c r="F714">
-        <v>33</v>
-      </c>
-      <c r="G714">
-        <v>42767</v>
-      </c>
-      <c r="H714" s="1">
-        <v>2471.4699999999998</v>
-      </c>
-      <c r="I714" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A715" s="2">
-        <v>6</v>
-      </c>
-      <c r="B715" t="s">
-        <v>682</v>
-      </c>
-      <c r="C715" t="s">
-        <v>683</v>
-      </c>
-      <c r="D715">
-        <v>44847</v>
-      </c>
-      <c r="E715" t="s">
-        <v>687</v>
-      </c>
-      <c r="F715">
-        <v>33</v>
-      </c>
-      <c r="G715">
-        <v>42767</v>
-      </c>
-      <c r="H715" s="1">
-        <v>663.59</v>
-      </c>
-      <c r="I715" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A716" s="2">
-        <v>6</v>
-      </c>
-      <c r="B716" t="s">
-        <v>682</v>
-      </c>
-      <c r="C716" t="s">
-        <v>683</v>
-      </c>
-      <c r="D716">
-        <v>44865</v>
-      </c>
-      <c r="E716" t="s">
-        <v>705</v>
-      </c>
-      <c r="F716">
-        <v>373</v>
-      </c>
-      <c r="G716">
-        <v>42791</v>
-      </c>
-      <c r="H716" s="1">
-        <v>0</v>
-      </c>
-      <c r="I716" s="1">
-        <v>169.23</v>
-      </c>
-    </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A717" s="2">
-        <v>6</v>
-      </c>
-      <c r="B717" t="s">
-        <v>682</v>
-      </c>
-      <c r="C717" t="s">
-        <v>683</v>
-      </c>
-      <c r="D717">
-        <v>44895</v>
-      </c>
-      <c r="E717" t="s">
-        <v>706</v>
-      </c>
-      <c r="F717">
-        <v>367</v>
-      </c>
-      <c r="G717">
-        <v>43007</v>
-      </c>
-      <c r="H717" s="1">
-        <v>57.11</v>
-      </c>
-      <c r="I717" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A718" s="2">
-        <v>6</v>
-      </c>
-      <c r="B718" t="s">
-        <v>682</v>
-      </c>
-      <c r="C718" t="s">
-        <v>683</v>
-      </c>
-      <c r="D718">
-        <v>44908</v>
-      </c>
-      <c r="E718" t="s">
-        <v>707</v>
-      </c>
-      <c r="G718">
-        <v>43170</v>
-      </c>
-      <c r="H718" s="1">
-        <v>21456.400000000001</v>
-      </c>
-      <c r="I718" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A719" s="2">
-        <v>6</v>
-      </c>
-      <c r="B719" t="s">
-        <v>682</v>
-      </c>
-      <c r="C719" t="s">
-        <v>683</v>
-      </c>
-      <c r="D719">
-        <v>44908</v>
-      </c>
-      <c r="E719" t="s">
-        <v>708</v>
-      </c>
-      <c r="F719">
-        <v>381</v>
-      </c>
-      <c r="G719">
-        <v>43170</v>
-      </c>
-      <c r="H719" s="1">
-        <v>0</v>
-      </c>
-      <c r="I719" s="1">
-        <v>233.45</v>
-      </c>
-    </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A720" s="2">
-        <v>6</v>
-      </c>
-      <c r="B720" t="s">
-        <v>682</v>
-      </c>
-      <c r="C720" t="s">
-        <v>683</v>
-      </c>
-      <c r="D720">
-        <v>44910</v>
-      </c>
-      <c r="E720" t="s">
-        <v>693</v>
-      </c>
-      <c r="F720">
-        <v>33</v>
-      </c>
-      <c r="G720">
-        <v>43131</v>
-      </c>
-      <c r="H720" s="1">
-        <v>0</v>
-      </c>
-      <c r="I720" s="1">
-        <v>8204.75</v>
-      </c>
-    </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A721" s="2">
-        <v>6</v>
-      </c>
-      <c r="B721" t="s">
-        <v>682</v>
-      </c>
-      <c r="C721" t="s">
-        <v>683</v>
-      </c>
-      <c r="D721">
-        <v>44910</v>
-      </c>
-      <c r="E721" t="s">
-        <v>709</v>
-      </c>
-      <c r="F721">
-        <v>33</v>
-      </c>
-      <c r="G721">
-        <v>43131</v>
-      </c>
-      <c r="H721" s="1">
-        <v>0</v>
-      </c>
-      <c r="I721" s="1">
-        <v>4813.45</v>
-      </c>
-    </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A722" s="2">
-        <v>6</v>
-      </c>
-      <c r="B722" t="s">
-        <v>682</v>
-      </c>
-      <c r="C722" t="s">
-        <v>683</v>
-      </c>
-      <c r="D722">
-        <v>44915</v>
-      </c>
-      <c r="E722" t="s">
-        <v>703</v>
-      </c>
-      <c r="F722">
-        <v>33</v>
-      </c>
-      <c r="G722">
-        <v>43138</v>
-      </c>
-      <c r="H722" s="1">
-        <v>0</v>
-      </c>
-      <c r="I722" s="1">
-        <v>8554.76</v>
-      </c>
-    </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A723" s="2">
-        <v>6</v>
-      </c>
-      <c r="B723" t="s">
-        <v>682</v>
-      </c>
-      <c r="C723" t="s">
-        <v>683</v>
-      </c>
-      <c r="D723">
-        <v>44915</v>
-      </c>
-      <c r="E723" t="s">
-        <v>710</v>
-      </c>
-      <c r="G723">
-        <v>43181</v>
-      </c>
-      <c r="H723" s="1">
-        <v>279</v>
-      </c>
-      <c r="I723" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A724" s="2">
-        <v>6</v>
-      </c>
-      <c r="B724" t="s">
-        <v>682</v>
-      </c>
-      <c r="C724" t="s">
-        <v>683</v>
-      </c>
-      <c r="D724">
-        <v>44915</v>
-      </c>
-      <c r="E724" t="s">
-        <v>711</v>
-      </c>
-      <c r="F724">
-        <v>381</v>
-      </c>
-      <c r="G724">
-        <v>43181</v>
-      </c>
-      <c r="H724" s="1">
-        <v>0</v>
-      </c>
-      <c r="I724" s="1">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A725" s="2">
-        <v>6</v>
-      </c>
-      <c r="B725" t="s">
-        <v>682</v>
-      </c>
-      <c r="C725" t="s">
-        <v>683</v>
-      </c>
-      <c r="D725">
-        <v>44925</v>
-      </c>
-      <c r="E725" t="s">
-        <v>712</v>
-      </c>
-      <c r="F725">
-        <v>373</v>
-      </c>
-      <c r="G725">
-        <v>43197</v>
-      </c>
-      <c r="H725" s="1">
-        <v>0</v>
-      </c>
-      <c r="I725" s="1">
-        <v>76.040000000000006</v>
-      </c>
-    </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A726" s="2">
-        <v>692</v>
-      </c>
-      <c r="B726" t="s">
-        <v>713</v>
-      </c>
-      <c r="C726" t="s">
-        <v>714</v>
-      </c>
-      <c r="D726">
-        <v>44592</v>
-      </c>
-      <c r="E726" t="s">
-        <v>715</v>
-      </c>
-      <c r="F726">
-        <v>373</v>
-      </c>
-      <c r="G726">
-        <v>40935</v>
-      </c>
-      <c r="H726" s="1">
-        <v>0</v>
-      </c>
-      <c r="I726" s="1">
-        <v>11.55</v>
-      </c>
-    </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A727" s="2">
-        <v>692</v>
-      </c>
-      <c r="B727" t="s">
-        <v>713</v>
-      </c>
-      <c r="C727" t="s">
-        <v>714</v>
-      </c>
-      <c r="D727">
-        <v>44617</v>
-      </c>
-      <c r="E727" t="s">
-        <v>716</v>
-      </c>
-      <c r="F727">
-        <v>373</v>
-      </c>
-      <c r="G727">
-        <v>41169</v>
-      </c>
-      <c r="H727" s="1">
-        <v>0</v>
-      </c>
-      <c r="I727" s="1">
-        <v>8.36</v>
-      </c>
-    </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A728" s="2">
-        <v>692</v>
-      </c>
-      <c r="B728" t="s">
-        <v>713</v>
-      </c>
-      <c r="C728" t="s">
-        <v>714</v>
-      </c>
-      <c r="D728">
-        <v>44651</v>
-      </c>
-      <c r="E728" t="s">
-        <v>717</v>
-      </c>
-      <c r="F728">
-        <v>373</v>
-      </c>
-      <c r="G728">
-        <v>41379</v>
-      </c>
-      <c r="H728" s="1">
-        <v>0</v>
-      </c>
-      <c r="I728" s="1">
-        <v>19.29</v>
-      </c>
-    </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A729" s="2">
-        <v>692</v>
-      </c>
-      <c r="B729" t="s">
-        <v>713</v>
-      </c>
-      <c r="C729" t="s">
-        <v>714</v>
-      </c>
-      <c r="D729">
-        <v>44680</v>
-      </c>
-      <c r="E729" t="s">
-        <v>718</v>
-      </c>
-      <c r="F729">
-        <v>373</v>
-      </c>
-      <c r="G729">
-        <v>41553</v>
-      </c>
-      <c r="H729" s="1">
-        <v>0</v>
-      </c>
-      <c r="I729" s="1">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A730" s="2">
-        <v>692</v>
-      </c>
-      <c r="B730" t="s">
-        <v>713</v>
-      </c>
-      <c r="C730" t="s">
-        <v>714</v>
-      </c>
-      <c r="D730">
-        <v>44712</v>
-      </c>
-      <c r="E730" t="s">
-        <v>719</v>
-      </c>
-      <c r="F730">
-        <v>373</v>
-      </c>
-      <c r="G730">
-        <v>41757</v>
-      </c>
-      <c r="H730" s="1">
-        <v>0</v>
-      </c>
-      <c r="I730" s="1">
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A731" s="2">
-        <v>692</v>
-      </c>
-      <c r="B731" t="s">
-        <v>713</v>
-      </c>
-      <c r="C731" t="s">
-        <v>714</v>
-      </c>
-      <c r="D731">
-        <v>44725</v>
-      </c>
-      <c r="E731" t="s">
-        <v>720</v>
-      </c>
-      <c r="F731">
-        <v>33</v>
-      </c>
-      <c r="G731">
-        <v>41888</v>
-      </c>
-      <c r="H731" s="1">
-        <v>0</v>
-      </c>
-      <c r="I731" s="1">
-        <v>16289.61</v>
-      </c>
-    </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A732" s="2">
-        <v>692</v>
-      </c>
-      <c r="B732" t="s">
-        <v>713</v>
-      </c>
-      <c r="C732" t="s">
-        <v>714</v>
-      </c>
-      <c r="D732">
-        <v>44725</v>
-      </c>
-      <c r="E732" t="s">
-        <v>721</v>
-      </c>
-      <c r="G732">
-        <v>41960</v>
-      </c>
-      <c r="H732" s="1">
-        <v>16468.8</v>
-      </c>
-      <c r="I732" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A733" s="2">
-        <v>692</v>
-      </c>
-      <c r="B733" t="s">
-        <v>713</v>
-      </c>
-      <c r="C733" t="s">
-        <v>714</v>
-      </c>
-      <c r="D733">
-        <v>44725</v>
-      </c>
-      <c r="E733" t="s">
-        <v>722</v>
-      </c>
-      <c r="F733">
-        <v>381</v>
-      </c>
-      <c r="G733">
-        <v>41960</v>
-      </c>
-      <c r="H733" s="1">
-        <v>0</v>
-      </c>
-      <c r="I733" s="1">
-        <v>179.19</v>
-      </c>
-    </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A734" s="2">
-        <v>692</v>
-      </c>
-      <c r="B734" t="s">
-        <v>713</v>
-      </c>
-      <c r="C734" t="s">
-        <v>714</v>
-      </c>
-      <c r="D734">
-        <v>44742</v>
-      </c>
-      <c r="E734" t="s">
-        <v>723</v>
-      </c>
-      <c r="F734">
-        <v>367</v>
-      </c>
-      <c r="G734">
-        <v>41927</v>
-      </c>
-      <c r="H734" s="1">
-        <v>15.04</v>
-      </c>
-      <c r="I734" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A735" s="2">
-        <v>692</v>
-      </c>
-      <c r="B735" t="s">
-        <v>713</v>
-      </c>
-      <c r="C735" t="s">
-        <v>714</v>
-      </c>
-      <c r="D735">
-        <v>44771</v>
-      </c>
-      <c r="E735" t="s">
-        <v>724</v>
-      </c>
-      <c r="F735">
-        <v>373</v>
-      </c>
-      <c r="G735">
-        <v>42174</v>
-      </c>
-      <c r="H735" s="1">
-        <v>0</v>
-      </c>
-      <c r="I735" s="1">
-        <v>7.01</v>
-      </c>
-    </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A736" s="2">
-        <v>692</v>
-      </c>
-      <c r="B736" t="s">
-        <v>713</v>
-      </c>
-      <c r="C736" t="s">
-        <v>714</v>
-      </c>
-      <c r="D736">
-        <v>44804</v>
-      </c>
-      <c r="E736" t="s">
-        <v>725</v>
-      </c>
-      <c r="F736">
-        <v>373</v>
-      </c>
-      <c r="G736">
-        <v>42346</v>
-      </c>
-      <c r="H736" s="1">
-        <v>0</v>
-      </c>
-      <c r="I736" s="1">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A737" s="2">
-        <v>692</v>
-      </c>
-      <c r="B737" t="s">
-        <v>713</v>
-      </c>
-      <c r="C737" t="s">
-        <v>714</v>
-      </c>
-      <c r="D737">
-        <v>44823</v>
-      </c>
-      <c r="E737" t="s">
-        <v>726</v>
-      </c>
-      <c r="F737">
-        <v>33</v>
-      </c>
-      <c r="G737">
-        <v>42509</v>
-      </c>
-      <c r="H737" s="1">
-        <v>0</v>
-      </c>
-      <c r="I737" s="1">
-        <v>6576.66</v>
-      </c>
-    </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A738" s="2">
-        <v>692</v>
-      </c>
-      <c r="B738" t="s">
-        <v>713</v>
-      </c>
-      <c r="C738" t="s">
-        <v>714</v>
-      </c>
-      <c r="D738">
-        <v>44823</v>
-      </c>
-      <c r="E738" t="s">
-        <v>727</v>
-      </c>
-      <c r="G738">
-        <v>42550</v>
-      </c>
-      <c r="H738" s="1">
-        <v>6649</v>
-      </c>
-      <c r="I738" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A739" s="2">
-        <v>692</v>
-      </c>
-      <c r="B739" t="s">
-        <v>713</v>
-      </c>
-      <c r="C739" t="s">
-        <v>714</v>
-      </c>
-      <c r="D739">
-        <v>44823</v>
-      </c>
-      <c r="E739" t="s">
-        <v>728</v>
-      </c>
-      <c r="F739">
-        <v>381</v>
-      </c>
-      <c r="G739">
-        <v>42550</v>
-      </c>
-      <c r="H739" s="1">
-        <v>0</v>
-      </c>
-      <c r="I739" s="1">
-        <v>72.34</v>
-      </c>
-    </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A740" s="2">
-        <v>692</v>
-      </c>
-      <c r="B740" t="s">
-        <v>713</v>
-      </c>
-      <c r="C740" t="s">
-        <v>714</v>
-      </c>
-      <c r="D740">
-        <v>44834</v>
-      </c>
-      <c r="E740" t="s">
-        <v>729</v>
-      </c>
-      <c r="F740">
-        <v>367</v>
-      </c>
-      <c r="G740">
-        <v>42568</v>
-      </c>
-      <c r="H740" s="1">
-        <v>2.86</v>
-      </c>
-      <c r="I740" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A741" s="2">
-        <v>692</v>
-      </c>
-      <c r="B741" t="s">
-        <v>713</v>
-      </c>
-      <c r="C741" t="s">
-        <v>714</v>
-      </c>
-      <c r="D741">
-        <v>44865</v>
-      </c>
-      <c r="E741" t="s">
-        <v>730</v>
-      </c>
-      <c r="F741">
-        <v>373</v>
-      </c>
-      <c r="G741">
-        <v>42791</v>
-      </c>
-      <c r="H741" s="1">
-        <v>0</v>
-      </c>
-      <c r="I741" s="1">
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A742" s="2">
-        <v>692</v>
-      </c>
-      <c r="B742" t="s">
-        <v>713</v>
-      </c>
-      <c r="C742" t="s">
-        <v>714</v>
-      </c>
-      <c r="D742">
-        <v>44872</v>
-      </c>
-      <c r="E742" t="s">
-        <v>731</v>
-      </c>
-      <c r="G742">
-        <v>42990</v>
-      </c>
-      <c r="H742" s="1">
-        <v>11930.5</v>
-      </c>
-      <c r="I742" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A743" s="2">
-        <v>692</v>
-      </c>
-      <c r="B743" t="s">
-        <v>713</v>
-      </c>
-      <c r="C743" t="s">
-        <v>714</v>
-      </c>
-      <c r="D743">
-        <v>44872</v>
-      </c>
-      <c r="E743" t="s">
-        <v>732</v>
-      </c>
-      <c r="F743">
-        <v>381</v>
-      </c>
-      <c r="G743">
-        <v>42990</v>
-      </c>
-      <c r="H743" s="1">
-        <v>0</v>
-      </c>
-      <c r="I743" s="1">
-        <v>129.81</v>
-      </c>
-    </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A744" s="2">
-        <v>692</v>
-      </c>
-      <c r="B744" t="s">
-        <v>713</v>
-      </c>
-      <c r="C744" t="s">
-        <v>714</v>
-      </c>
-      <c r="D744">
-        <v>44873</v>
-      </c>
-      <c r="E744" t="s">
-        <v>693</v>
-      </c>
-      <c r="F744">
-        <v>33</v>
-      </c>
-      <c r="G744">
-        <v>42971</v>
-      </c>
-      <c r="H744" s="1">
-        <v>0</v>
-      </c>
-      <c r="I744" s="1">
-        <v>15407.87</v>
-      </c>
-    </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A745" s="2">
-        <v>692</v>
-      </c>
-      <c r="B745" t="s">
-        <v>713</v>
-      </c>
-      <c r="C745" t="s">
-        <v>714</v>
-      </c>
-      <c r="D745">
-        <v>44874</v>
-      </c>
-      <c r="E745" t="s">
-        <v>733</v>
-      </c>
-      <c r="G745">
-        <v>42992</v>
-      </c>
-      <c r="H745" s="1">
-        <v>3808</v>
-      </c>
-      <c r="I745" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A746" s="2">
-        <v>692</v>
-      </c>
-      <c r="B746" t="s">
-        <v>713</v>
-      </c>
-      <c r="C746" t="s">
-        <v>714</v>
-      </c>
-      <c r="D746">
-        <v>44874</v>
-      </c>
-      <c r="E746" t="s">
-        <v>734</v>
-      </c>
-      <c r="F746">
-        <v>381</v>
-      </c>
-      <c r="G746">
-        <v>42992</v>
-      </c>
-      <c r="H746" s="1">
-        <v>0</v>
-      </c>
-      <c r="I746" s="1">
-        <v>41.43</v>
-      </c>
-    </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A747" s="2">
-        <v>692</v>
-      </c>
-      <c r="B747" t="s">
-        <v>713</v>
-      </c>
-      <c r="C747" t="s">
-        <v>714</v>
-      </c>
-      <c r="D747">
-        <v>44895</v>
-      </c>
-      <c r="E747" t="s">
-        <v>735</v>
-      </c>
-      <c r="F747">
-        <v>367</v>
-      </c>
-      <c r="G747">
-        <v>43007</v>
-      </c>
-      <c r="H747" s="1">
-        <v>13.6</v>
-      </c>
-      <c r="I747" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A748" s="2">
-        <v>692</v>
-      </c>
-      <c r="B748" t="s">
-        <v>713</v>
-      </c>
-      <c r="C748" t="s">
-        <v>714</v>
-      </c>
-      <c r="D748">
-        <v>44925</v>
-      </c>
-      <c r="E748" t="s">
-        <v>736</v>
-      </c>
-      <c r="F748">
-        <v>367</v>
-      </c>
-      <c r="G748">
-        <v>43197</v>
-      </c>
-      <c r="H748" s="1">
-        <v>7.78</v>
-      </c>
-      <c r="I748" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A749" s="2">
-        <v>588</v>
-      </c>
-      <c r="B749" t="s">
-        <v>737</v>
-      </c>
-      <c r="C749" t="s">
-        <v>738</v>
-      </c>
-      <c r="D749">
-        <v>44592</v>
-      </c>
-      <c r="E749" t="s">
-        <v>739</v>
-      </c>
-      <c r="F749">
-        <v>373</v>
-      </c>
-      <c r="G749">
-        <v>40935</v>
-      </c>
-      <c r="H749" s="1">
-        <v>0</v>
-      </c>
-      <c r="I749" s="1">
-        <v>120.06</v>
-      </c>
-    </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A750" s="2">
-        <v>588</v>
-      </c>
-      <c r="B750" t="s">
-        <v>737</v>
-      </c>
-      <c r="C750" t="s">
-        <v>738</v>
-      </c>
-      <c r="D750">
-        <v>44617</v>
-      </c>
-      <c r="E750" t="s">
-        <v>740</v>
-      </c>
-      <c r="F750">
-        <v>373</v>
-      </c>
-      <c r="G750">
-        <v>41169</v>
-      </c>
-      <c r="H750" s="1">
-        <v>0</v>
-      </c>
-      <c r="I750" s="1">
-        <v>106.27</v>
-      </c>
-    </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A751" s="2">
-        <v>588</v>
-      </c>
-      <c r="B751" t="s">
-        <v>737</v>
-      </c>
-      <c r="C751" t="s">
-        <v>738</v>
-      </c>
-      <c r="D751">
-        <v>44651</v>
-      </c>
-      <c r="E751" t="s">
-        <v>741</v>
-      </c>
-      <c r="F751">
-        <v>373</v>
-      </c>
-      <c r="G751">
-        <v>41379</v>
-      </c>
-      <c r="H751" s="1">
-        <v>0</v>
-      </c>
-      <c r="I751" s="1">
-        <v>239.33</v>
-      </c>
-    </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A752" s="2">
-        <v>588</v>
-      </c>
-      <c r="B752" t="s">
-        <v>737</v>
-      </c>
-      <c r="C752" t="s">
-        <v>738</v>
-      </c>
-      <c r="D752">
-        <v>44680</v>
-      </c>
-      <c r="E752" t="s">
-        <v>742</v>
-      </c>
-      <c r="F752">
-        <v>373</v>
-      </c>
-      <c r="G752">
-        <v>41553</v>
-      </c>
-      <c r="H752" s="1">
-        <v>0</v>
-      </c>
-      <c r="I752" s="1">
-        <v>17.96</v>
-      </c>
-    </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A753" s="2">
-        <v>588</v>
-      </c>
-      <c r="B753" t="s">
-        <v>737</v>
-      </c>
-      <c r="C753" t="s">
-        <v>738</v>
-      </c>
-      <c r="D753">
-        <v>44712</v>
-      </c>
-      <c r="E753" t="s">
-        <v>743</v>
-      </c>
-      <c r="F753">
-        <v>373</v>
-      </c>
-      <c r="G753">
-        <v>41757</v>
-      </c>
-      <c r="H753" s="1">
-        <v>0</v>
-      </c>
-      <c r="I753" s="1">
-        <v>97.42</v>
-      </c>
-    </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A754" s="2">
-        <v>588</v>
-      </c>
-      <c r="B754" t="s">
-        <v>737</v>
-      </c>
-      <c r="C754" t="s">
-        <v>738</v>
-      </c>
-      <c r="D754">
-        <v>44742</v>
-      </c>
-      <c r="E754" t="s">
-        <v>723</v>
-      </c>
-      <c r="F754">
-        <v>367</v>
-      </c>
-      <c r="G754">
-        <v>41927</v>
-      </c>
-      <c r="H754" s="1">
-        <v>166.47</v>
-      </c>
-      <c r="I754" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A755" s="2">
-        <v>588</v>
-      </c>
-      <c r="B755" t="s">
-        <v>737</v>
-      </c>
-      <c r="C755" t="s">
-        <v>738</v>
-      </c>
-      <c r="D755">
-        <v>44771</v>
-      </c>
-      <c r="E755" t="s">
-        <v>744</v>
-      </c>
-      <c r="F755">
-        <v>373</v>
-      </c>
-      <c r="G755">
-        <v>42174</v>
-      </c>
-      <c r="H755" s="1">
-        <v>0</v>
-      </c>
-      <c r="I755" s="1">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A756" s="2">
-        <v>588</v>
-      </c>
-      <c r="B756" t="s">
-        <v>737</v>
-      </c>
-      <c r="C756" t="s">
-        <v>738</v>
-      </c>
-      <c r="D756">
-        <v>44804</v>
-      </c>
-      <c r="E756" t="s">
-        <v>745</v>
-      </c>
-      <c r="F756">
-        <v>373</v>
-      </c>
-      <c r="G756">
-        <v>42346</v>
-      </c>
-      <c r="H756" s="1">
-        <v>0</v>
-      </c>
-      <c r="I756" s="1">
-        <v>104.62</v>
-      </c>
-    </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A757" s="2">
-        <v>588</v>
-      </c>
-      <c r="B757" t="s">
-        <v>737</v>
-      </c>
-      <c r="C757" t="s">
-        <v>738</v>
-      </c>
-      <c r="D757">
-        <v>44834</v>
-      </c>
-      <c r="E757" t="s">
-        <v>746</v>
-      </c>
-      <c r="F757">
-        <v>373</v>
-      </c>
-      <c r="G757">
-        <v>42568</v>
-      </c>
-      <c r="H757" s="1">
-        <v>0</v>
-      </c>
-      <c r="I757" s="1">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A758" s="2">
-        <v>588</v>
-      </c>
-      <c r="B758" t="s">
-        <v>737</v>
-      </c>
-      <c r="C758" t="s">
-        <v>738</v>
-      </c>
-      <c r="D758">
-        <v>44865</v>
-      </c>
-      <c r="E758" t="s">
-        <v>747</v>
-      </c>
-      <c r="F758">
-        <v>367</v>
-      </c>
-      <c r="G758">
-        <v>42791</v>
-      </c>
-      <c r="H758" s="1">
-        <v>12.13</v>
-      </c>
-      <c r="I758" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A759" s="2">
-        <v>2761</v>
-      </c>
-      <c r="B759" t="s">
-        <v>748</v>
-      </c>
-      <c r="C759" t="s">
-        <v>749</v>
-      </c>
-      <c r="D759">
-        <v>44631</v>
-      </c>
-      <c r="E759" t="s">
-        <v>750</v>
-      </c>
-      <c r="G759">
-        <v>41187</v>
-      </c>
-      <c r="H759" s="1">
-        <v>0</v>
-      </c>
-      <c r="I759" s="1">
-        <v>1370.5</v>
-      </c>
-    </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A760" s="2">
-        <v>3132</v>
-      </c>
-      <c r="B760" t="s">
-        <v>751</v>
-      </c>
-      <c r="C760" t="s">
-        <v>752</v>
-      </c>
-      <c r="D760">
-        <v>44575</v>
-      </c>
-      <c r="E760" t="s">
-        <v>753</v>
-      </c>
-      <c r="G760">
-        <v>40912</v>
-      </c>
-      <c r="H760" s="1">
-        <v>1817.36</v>
-      </c>
-      <c r="I760" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A761" s="2">
-        <v>3132</v>
-      </c>
-      <c r="B761" t="s">
-        <v>751</v>
-      </c>
-      <c r="C761" t="s">
-        <v>752</v>
-      </c>
-      <c r="D761">
-        <v>44592</v>
-      </c>
-      <c r="E761" t="s">
-        <v>754</v>
-      </c>
-      <c r="F761">
-        <v>3056</v>
-      </c>
-      <c r="G761">
-        <v>41007</v>
-      </c>
-      <c r="H761" s="1">
-        <v>0</v>
-      </c>
-      <c r="I761" s="1">
-        <v>1817.36</v>
-      </c>
-    </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A762" s="2">
-        <v>3164</v>
-      </c>
-      <c r="B762" t="s">
-        <v>755</v>
-      </c>
-      <c r="C762" t="s">
-        <v>756</v>
-      </c>
-      <c r="D762">
-        <v>44592</v>
-      </c>
-      <c r="E762" t="s">
-        <v>757</v>
-      </c>
-      <c r="F762">
-        <v>252</v>
-      </c>
-      <c r="G762">
-        <v>40935</v>
-      </c>
-      <c r="H762" s="1">
-        <v>4.04</v>
-      </c>
-      <c r="I762" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A763" s="2">
-        <v>3164</v>
-      </c>
-      <c r="B763" t="s">
-        <v>755</v>
-      </c>
-      <c r="C763" t="s">
-        <v>756</v>
-      </c>
-      <c r="D763">
-        <v>44592</v>
-      </c>
-      <c r="E763" t="s">
-        <v>758</v>
-      </c>
-      <c r="G763">
-        <v>40999</v>
-      </c>
-      <c r="H763" s="1">
-        <v>0</v>
-      </c>
-      <c r="I763" s="1">
-        <v>1223.23</v>
-      </c>
-    </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A764" s="2">
-        <v>3164</v>
-      </c>
-      <c r="B764" t="s">
-        <v>755</v>
-      </c>
-      <c r="C764" t="s">
-        <v>756</v>
-      </c>
-      <c r="D764">
-        <v>44596</v>
-      </c>
-      <c r="E764" t="s">
-        <v>759</v>
-      </c>
-      <c r="G764">
-        <v>41138</v>
-      </c>
-      <c r="H764" s="1">
-        <v>856.26</v>
-      </c>
-      <c r="I764" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A765" s="2">
-        <v>3164</v>
-      </c>
-      <c r="B765" t="s">
-        <v>755</v>
-      </c>
-      <c r="C765" t="s">
-        <v>756</v>
-      </c>
-      <c r="D765">
-        <v>44620</v>
-      </c>
-      <c r="E765" t="s">
-        <v>758</v>
-      </c>
-      <c r="G765">
-        <v>41131</v>
-      </c>
-      <c r="H765" s="1">
-        <v>0</v>
-      </c>
-      <c r="I765" s="1">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A766" s="2">
-        <v>3164</v>
-      </c>
-      <c r="B766" t="s">
-        <v>755</v>
-      </c>
-      <c r="C766" t="s">
-        <v>756</v>
-      </c>
-      <c r="D766">
-        <v>44620</v>
-      </c>
-      <c r="E766" t="s">
-        <v>760</v>
-      </c>
-      <c r="F766">
-        <v>252</v>
-      </c>
-      <c r="G766">
-        <v>41171</v>
-      </c>
-      <c r="H766" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="I766" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A767" s="2">
-        <v>3164</v>
-      </c>
-      <c r="B767" t="s">
-        <v>755</v>
-      </c>
-      <c r="C767" t="s">
-        <v>756</v>
-      </c>
-      <c r="D767">
-        <v>44629</v>
-      </c>
-      <c r="E767" t="s">
-        <v>761</v>
-      </c>
-      <c r="G767">
-        <v>41183</v>
-      </c>
-      <c r="H767" s="1">
-        <v>6500</v>
-      </c>
-      <c r="I767" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A768" s="2">
-        <v>3164</v>
-      </c>
-      <c r="B768" t="s">
-        <v>755</v>
-      </c>
-      <c r="C768" t="s">
-        <v>756</v>
-      </c>
-      <c r="D768">
-        <v>44651</v>
-      </c>
-      <c r="E768" t="s">
-        <v>758</v>
-      </c>
-      <c r="G768">
-        <v>41344</v>
-      </c>
-      <c r="H768" s="1">
-        <v>0</v>
-      </c>
-      <c r="I768" s="1">
-        <v>898.84</v>
-      </c>
-    </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A769" s="2">
-        <v>3164</v>
-      </c>
-      <c r="B769" t="s">
-        <v>755</v>
-      </c>
-      <c r="C769" t="s">
-        <v>756</v>
-      </c>
-      <c r="D769">
-        <v>44651</v>
-      </c>
-      <c r="E769" t="s">
-        <v>760</v>
-      </c>
-      <c r="F769">
-        <v>252</v>
-      </c>
-      <c r="G769">
-        <v>41379</v>
-      </c>
-      <c r="H769" s="1">
-        <v>1.39</v>
-      </c>
-      <c r="I769" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A770" s="2">
-        <v>3164</v>
-      </c>
-      <c r="B770" t="s">
-        <v>755</v>
-      </c>
-      <c r="C770" t="s">
-        <v>756</v>
-      </c>
-      <c r="D770">
-        <v>44680</v>
-      </c>
-      <c r="E770" t="s">
-        <v>758</v>
-      </c>
-      <c r="G770">
-        <v>41515</v>
-      </c>
-      <c r="H770" s="1">
-        <v>0</v>
-      </c>
-      <c r="I770" s="1">
-        <v>5975.51</v>
-      </c>
-    </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A771" s="2">
-        <v>3164</v>
-      </c>
-      <c r="B771" t="s">
-        <v>755</v>
-      </c>
-      <c r="C771" t="s">
-        <v>756</v>
-      </c>
-      <c r="D771">
-        <v>44680</v>
-      </c>
-      <c r="E771" t="s">
-        <v>760</v>
-      </c>
-      <c r="F771">
-        <v>252</v>
-      </c>
-      <c r="G771">
-        <v>41553</v>
-      </c>
-      <c r="H771" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="I771" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A772" s="2">
-        <v>3164</v>
-      </c>
-      <c r="B772" t="s">
-        <v>755</v>
-      </c>
-      <c r="C772" t="s">
-        <v>756</v>
-      </c>
-      <c r="D772">
-        <v>44712</v>
-      </c>
-      <c r="E772" t="s">
-        <v>758</v>
-      </c>
-      <c r="G772">
-        <v>41713</v>
-      </c>
-      <c r="H772" s="1">
-        <v>0</v>
-      </c>
-      <c r="I772" s="1">
-        <v>58.06</v>
-      </c>
-    </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A773" s="2">
-        <v>3164</v>
-      </c>
-      <c r="B773" t="s">
-        <v>755</v>
-      </c>
-      <c r="C773" t="s">
-        <v>756</v>
-      </c>
-      <c r="D773">
-        <v>44712</v>
-      </c>
-      <c r="E773" t="s">
-        <v>760</v>
-      </c>
-      <c r="F773">
-        <v>252</v>
-      </c>
-      <c r="G773">
-        <v>41757</v>
-      </c>
-      <c r="H773" s="1">
-        <v>1.92</v>
-      </c>
-      <c r="I773" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A774" s="2">
-        <v>3164</v>
-      </c>
-      <c r="B774" t="s">
-        <v>755</v>
-      </c>
-      <c r="C774" t="s">
-        <v>756</v>
-      </c>
-      <c r="D774">
-        <v>44742</v>
-      </c>
-      <c r="E774" t="s">
-        <v>758</v>
-      </c>
-      <c r="G774">
-        <v>41906</v>
-      </c>
-      <c r="H774" s="1">
-        <v>0</v>
-      </c>
-      <c r="I774" s="1">
-        <v>346.41</v>
-      </c>
-    </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A775" s="2">
-        <v>3351</v>
-      </c>
-      <c r="B775" t="s">
-        <v>762</v>
-      </c>
-      <c r="C775" t="s">
-        <v>763</v>
-      </c>
-      <c r="D775">
-        <v>44607</v>
-      </c>
-      <c r="E775" t="s">
-        <v>764</v>
-      </c>
-      <c r="G775">
-        <v>41153</v>
-      </c>
-      <c r="H775" s="1">
-        <v>602.63</v>
-      </c>
-      <c r="I775" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A776" s="2">
-        <v>3351</v>
-      </c>
-      <c r="B776" t="s">
-        <v>762</v>
-      </c>
-      <c r="C776" t="s">
-        <v>763</v>
-      </c>
-      <c r="D776">
-        <v>44617</v>
-      </c>
-      <c r="E776" t="s">
-        <v>758</v>
-      </c>
-      <c r="G776">
-        <v>41129</v>
-      </c>
-      <c r="H776" s="1">
-        <v>0</v>
-      </c>
-      <c r="I776" s="1">
-        <v>182.63</v>
-      </c>
-    </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A777" s="2">
-        <v>3351</v>
-      </c>
-      <c r="B777" t="s">
-        <v>762</v>
-      </c>
-      <c r="C777" t="s">
-        <v>763</v>
-      </c>
-      <c r="D777">
-        <v>44617</v>
-      </c>
-      <c r="E777" t="s">
-        <v>765</v>
-      </c>
-      <c r="F777">
-        <v>253</v>
-      </c>
-      <c r="G777">
-        <v>41169</v>
-      </c>
-      <c r="H777" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="I777" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A778" s="2">
-        <v>3351</v>
-      </c>
-      <c r="B778" t="s">
-        <v>762</v>
-      </c>
-      <c r="C778" t="s">
-        <v>763</v>
-      </c>
-      <c r="D778">
-        <v>44629</v>
-      </c>
-      <c r="E778" t="s">
-        <v>766</v>
-      </c>
-      <c r="G778">
-        <v>41183</v>
-      </c>
-      <c r="H778" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I778" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A779" s="2">
-        <v>3351</v>
-      </c>
-      <c r="B779" t="s">
-        <v>762</v>
-      </c>
-      <c r="C779" t="s">
-        <v>763</v>
-      </c>
-      <c r="D779">
-        <v>44651</v>
-      </c>
-      <c r="E779" t="s">
-        <v>758</v>
-      </c>
-      <c r="G779">
-        <v>41344</v>
-      </c>
-      <c r="H779" s="1">
-        <v>0</v>
-      </c>
-      <c r="I779" s="1">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A780" s="2">
-        <v>3351</v>
-      </c>
-      <c r="B780" t="s">
-        <v>762</v>
-      </c>
-      <c r="C780" t="s">
-        <v>763</v>
-      </c>
-      <c r="D780">
-        <v>44680</v>
-      </c>
-      <c r="E780" t="s">
-        <v>758</v>
-      </c>
-      <c r="G780">
-        <v>41515</v>
-      </c>
-      <c r="H780" s="1">
-        <v>0</v>
-      </c>
-      <c r="I780" s="1">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A781" s="2">
-        <v>3351</v>
-      </c>
-      <c r="B781" t="s">
-        <v>762</v>
-      </c>
-      <c r="C781" t="s">
-        <v>763</v>
-      </c>
-      <c r="D781">
-        <v>44712</v>
-      </c>
-      <c r="E781" t="s">
-        <v>758</v>
-      </c>
-      <c r="G781">
-        <v>41713</v>
-      </c>
-      <c r="H781" s="1">
-        <v>0</v>
-      </c>
-      <c r="I781" s="1">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A782" s="2">
-        <v>3351</v>
-      </c>
-      <c r="B782" t="s">
-        <v>762</v>
-      </c>
-      <c r="C782" t="s">
-        <v>763</v>
-      </c>
-      <c r="D782">
-        <v>44742</v>
-      </c>
-      <c r="E782" t="s">
-        <v>758</v>
-      </c>
-      <c r="G782">
-        <v>41906</v>
-      </c>
-      <c r="H782" s="1">
-        <v>0</v>
-      </c>
-      <c r="I782" s="1">
-        <v>229.5</v>
-      </c>
-    </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A783" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B783" t="s">
-        <v>767</v>
-      </c>
-      <c r="C783" t="s">
-        <v>768</v>
-      </c>
-      <c r="D783">
-        <v>44804</v>
-      </c>
-      <c r="E783" t="s">
-        <v>769</v>
-      </c>
-      <c r="G783">
-        <v>42346</v>
-      </c>
-      <c r="H783" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I783" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A784" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B784" t="s">
-        <v>767</v>
-      </c>
-      <c r="C784" t="s">
-        <v>768</v>
-      </c>
-      <c r="D784">
-        <v>44805</v>
-      </c>
-      <c r="E784" t="s">
-        <v>758</v>
-      </c>
-      <c r="G784">
-        <v>42490</v>
-      </c>
-      <c r="H784" s="1">
-        <v>0</v>
-      </c>
-      <c r="I784" s="1">
-        <v>122.22</v>
-      </c>
-    </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A785" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B785" t="s">
-        <v>767</v>
-      </c>
-      <c r="C785" t="s">
-        <v>768</v>
-      </c>
-      <c r="D785">
-        <v>44809</v>
-      </c>
-      <c r="E785" t="s">
-        <v>758</v>
-      </c>
-      <c r="G785">
-        <v>42495</v>
-      </c>
-      <c r="H785" s="1">
-        <v>0</v>
-      </c>
-      <c r="I785" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A786" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B786" t="s">
-        <v>767</v>
-      </c>
-      <c r="C786" t="s">
-        <v>768</v>
-      </c>
-      <c r="D786">
-        <v>44819</v>
-      </c>
-      <c r="E786" t="s">
-        <v>758</v>
-      </c>
-      <c r="G786">
-        <v>42505</v>
-      </c>
-      <c r="H786" s="1">
-        <v>0</v>
-      </c>
-      <c r="I786" s="1">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A787" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B787" t="s">
-        <v>767</v>
-      </c>
-      <c r="C787" t="s">
-        <v>768</v>
-      </c>
-      <c r="D787">
-        <v>44820</v>
-      </c>
-      <c r="E787" t="s">
-        <v>758</v>
-      </c>
-      <c r="G787">
-        <v>42506</v>
-      </c>
-      <c r="H787" s="1">
-        <v>0</v>
-      </c>
-      <c r="I787" s="1">
-        <v>200.1</v>
-      </c>
-    </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A788" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B788" t="s">
-        <v>767</v>
-      </c>
-      <c r="C788" t="s">
-        <v>768</v>
-      </c>
-      <c r="D788">
-        <v>44824</v>
-      </c>
-      <c r="E788" t="s">
-        <v>758</v>
-      </c>
-      <c r="G788">
-        <v>42511</v>
-      </c>
-      <c r="H788" s="1">
-        <v>0</v>
-      </c>
-      <c r="I788" s="1">
-        <v>643.4</v>
-      </c>
-    </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A789" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B789" t="s">
-        <v>767</v>
-      </c>
-      <c r="C789" t="s">
-        <v>768</v>
-      </c>
-      <c r="D789">
-        <v>44825</v>
-      </c>
-      <c r="E789" t="s">
-        <v>758</v>
-      </c>
-      <c r="G789">
-        <v>42513</v>
-      </c>
-      <c r="H789" s="1">
-        <v>0</v>
-      </c>
-      <c r="I789" s="1">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A790" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B790" t="s">
-        <v>767</v>
-      </c>
-      <c r="C790" t="s">
-        <v>768</v>
-      </c>
-      <c r="D790">
-        <v>44826</v>
-      </c>
-      <c r="E790" t="s">
-        <v>758</v>
-      </c>
-      <c r="G790">
-        <v>42515</v>
-      </c>
-      <c r="H790" s="1">
-        <v>0</v>
-      </c>
-      <c r="I790" s="1">
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A791" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B791" t="s">
-        <v>767</v>
-      </c>
-      <c r="C791" t="s">
-        <v>768</v>
-      </c>
-      <c r="D791">
-        <v>44827</v>
-      </c>
-      <c r="E791" t="s">
-        <v>758</v>
-      </c>
-      <c r="G791">
-        <v>42517</v>
-      </c>
-      <c r="H791" s="1">
-        <v>0</v>
-      </c>
-      <c r="I791" s="1">
-        <v>492.66</v>
-      </c>
-    </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A792" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B792" t="s">
-        <v>767</v>
-      </c>
-      <c r="C792" t="s">
-        <v>768</v>
-      </c>
-      <c r="D792">
-        <v>44827</v>
-      </c>
-      <c r="E792" t="s">
-        <v>770</v>
-      </c>
-      <c r="G792">
-        <v>42558</v>
-      </c>
-      <c r="H792" s="1">
-        <v>1842.62</v>
-      </c>
-      <c r="I792" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A793" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B793" t="s">
-        <v>767</v>
-      </c>
-      <c r="C793" t="s">
-        <v>768</v>
-      </c>
-      <c r="D793">
-        <v>44832</v>
-      </c>
-      <c r="E793" t="s">
-        <v>758</v>
-      </c>
-      <c r="G793">
-        <v>42523</v>
-      </c>
-      <c r="H793" s="1">
-        <v>0</v>
-      </c>
-      <c r="I793" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A794" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B794" t="s">
-        <v>767</v>
-      </c>
-      <c r="C794" t="s">
-        <v>768</v>
-      </c>
-      <c r="D794">
-        <v>44833</v>
-      </c>
-      <c r="E794" t="s">
-        <v>758</v>
-      </c>
-      <c r="G794">
-        <v>42524</v>
-      </c>
-      <c r="H794" s="1">
-        <v>0</v>
-      </c>
-      <c r="I794" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A795" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B795" t="s">
-        <v>767</v>
-      </c>
-      <c r="C795" t="s">
-        <v>768</v>
-      </c>
-      <c r="D795">
-        <v>44837</v>
-      </c>
-      <c r="E795" t="s">
-        <v>769</v>
-      </c>
-      <c r="G795">
-        <v>42753</v>
-      </c>
-      <c r="H795" s="1">
-        <v>897.66</v>
-      </c>
-      <c r="I795" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A796" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B796" t="s">
-        <v>767</v>
-      </c>
-      <c r="C796" t="s">
-        <v>768</v>
-      </c>
-      <c r="D796">
-        <v>44838</v>
-      </c>
-      <c r="E796" t="s">
-        <v>758</v>
-      </c>
-      <c r="G796">
-        <v>42718</v>
-      </c>
-      <c r="H796" s="1">
-        <v>0</v>
-      </c>
-      <c r="I796" s="1">
-        <v>1047.5999999999999</v>
-      </c>
-    </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A797" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B797" t="s">
-        <v>767</v>
-      </c>
-      <c r="C797" t="s">
-        <v>768</v>
-      </c>
-      <c r="D797">
-        <v>44847</v>
-      </c>
-      <c r="E797" t="s">
-        <v>769</v>
-      </c>
-      <c r="G797">
-        <v>42767</v>
-      </c>
-      <c r="H797" s="1">
-        <v>1047.5999999999999</v>
-      </c>
-      <c r="I797" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A798" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B798" t="s">
-        <v>767</v>
-      </c>
-      <c r="C798" t="s">
-        <v>768</v>
-      </c>
-      <c r="D798">
-        <v>44847</v>
-      </c>
-      <c r="E798" t="s">
-        <v>758</v>
-      </c>
-      <c r="G798">
-        <v>42799</v>
-      </c>
-      <c r="H798" s="1">
-        <v>0</v>
-      </c>
-      <c r="I798" s="1">
-        <v>439.99</v>
-      </c>
-    </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A799" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B799" t="s">
-        <v>767</v>
-      </c>
-      <c r="C799" t="s">
-        <v>768</v>
-      </c>
-      <c r="D799">
-        <v>44851</v>
-      </c>
-      <c r="E799" t="s">
-        <v>758</v>
-      </c>
-      <c r="G799">
-        <v>42734</v>
-      </c>
-      <c r="H799" s="1">
-        <v>0</v>
-      </c>
-      <c r="I799" s="1">
-        <v>2395.44</v>
-      </c>
-    </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A800" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B800" t="s">
-        <v>767</v>
-      </c>
-      <c r="C800" t="s">
-        <v>768</v>
-      </c>
-      <c r="D800">
-        <v>44851</v>
-      </c>
-      <c r="E800" t="s">
-        <v>771</v>
-      </c>
-      <c r="G800">
-        <v>42771</v>
-      </c>
-      <c r="H800" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I800" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A801" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B801" t="s">
-        <v>767</v>
-      </c>
-      <c r="C801" t="s">
-        <v>768</v>
-      </c>
-      <c r="D801">
-        <v>44854</v>
-      </c>
-      <c r="E801" t="s">
-        <v>769</v>
-      </c>
-      <c r="G801">
-        <v>42777</v>
-      </c>
-      <c r="H801" s="1">
-        <v>1835.43</v>
-      </c>
-      <c r="I801" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A802" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B802" t="s">
-        <v>767</v>
-      </c>
-      <c r="C802" t="s">
-        <v>768</v>
-      </c>
-      <c r="D802">
-        <v>44859</v>
-      </c>
-      <c r="E802" t="s">
-        <v>758</v>
-      </c>
-      <c r="G802">
-        <v>42744</v>
-      </c>
-      <c r="H802" s="1">
-        <v>0</v>
-      </c>
-      <c r="I802" s="1">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A803" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B803" t="s">
-        <v>767</v>
-      </c>
-      <c r="C803" t="s">
-        <v>768</v>
-      </c>
-      <c r="D803">
-        <v>44860</v>
-      </c>
-      <c r="E803" t="s">
-        <v>758</v>
-      </c>
-      <c r="G803">
-        <v>42746</v>
-      </c>
-      <c r="H803" s="1">
-        <v>0</v>
-      </c>
-      <c r="I803" s="1">
-        <v>261.31</v>
-      </c>
-    </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A804" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B804" t="s">
-        <v>767</v>
-      </c>
-      <c r="C804" t="s">
-        <v>768</v>
-      </c>
-      <c r="D804">
-        <v>44861</v>
-      </c>
-      <c r="E804" t="s">
-        <v>758</v>
-      </c>
-      <c r="G804">
-        <v>42817</v>
-      </c>
-      <c r="H804" s="1">
-        <v>0</v>
-      </c>
-      <c r="I804" s="1">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A805" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B805" t="s">
-        <v>767</v>
-      </c>
-      <c r="C805" t="s">
-        <v>768</v>
-      </c>
-      <c r="D805">
-        <v>44862</v>
-      </c>
-      <c r="E805" t="s">
-        <v>758</v>
-      </c>
-      <c r="G805">
-        <v>42749</v>
-      </c>
-      <c r="H805" s="1">
-        <v>0</v>
-      </c>
-      <c r="I805" s="1">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A806" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B806" t="s">
-        <v>767</v>
-      </c>
-      <c r="C806" t="s">
-        <v>768</v>
-      </c>
-      <c r="D806">
-        <v>44866</v>
-      </c>
-      <c r="E806" t="s">
-        <v>758</v>
-      </c>
-      <c r="G806">
-        <v>42966</v>
-      </c>
-      <c r="H806" s="1">
-        <v>0</v>
-      </c>
-      <c r="I806" s="1">
-        <v>570.29999999999995</v>
-      </c>
-    </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A807" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B807" t="s">
-        <v>767</v>
-      </c>
-      <c r="C807" t="s">
-        <v>768</v>
-      </c>
-      <c r="D807">
-        <v>44866</v>
-      </c>
-      <c r="E807" t="s">
-        <v>769</v>
-      </c>
-      <c r="G807">
-        <v>42987</v>
-      </c>
-      <c r="H807" s="1">
-        <v>1231.31</v>
-      </c>
-      <c r="I807" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A808" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B808" t="s">
-        <v>767</v>
-      </c>
-      <c r="C808" t="s">
-        <v>768</v>
-      </c>
-      <c r="D808">
-        <v>44872</v>
-      </c>
-      <c r="E808" t="s">
-        <v>758</v>
-      </c>
-      <c r="G808">
-        <v>42970</v>
-      </c>
-      <c r="H808" s="1">
-        <v>0</v>
-      </c>
-      <c r="I808" s="1">
-        <v>379.74</v>
-      </c>
-    </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A809" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B809" t="s">
-        <v>767</v>
-      </c>
-      <c r="C809" t="s">
-        <v>768</v>
-      </c>
-      <c r="D809">
-        <v>44875</v>
-      </c>
-      <c r="E809" t="s">
-        <v>758</v>
-      </c>
-      <c r="G809">
-        <v>42973</v>
-      </c>
-      <c r="H809" s="1">
-        <v>0</v>
-      </c>
-      <c r="I809" s="1">
-        <v>193.06</v>
-      </c>
-    </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A810" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B810" t="s">
-        <v>767</v>
-      </c>
-      <c r="C810" t="s">
-        <v>768</v>
-      </c>
-      <c r="D810">
-        <v>44876</v>
-      </c>
-      <c r="E810" t="s">
-        <v>758</v>
-      </c>
-      <c r="G810">
-        <v>42974</v>
-      </c>
-      <c r="H810" s="1">
-        <v>0</v>
-      </c>
-      <c r="I810" s="1">
-        <v>120.54</v>
-      </c>
-    </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A811" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B811" t="s">
-        <v>767</v>
-      </c>
-      <c r="C811" t="s">
-        <v>768</v>
-      </c>
-      <c r="D811">
-        <v>44881</v>
-      </c>
-      <c r="E811" t="s">
-        <v>758</v>
-      </c>
-      <c r="G811">
-        <v>42976</v>
-      </c>
-      <c r="H811" s="1">
-        <v>0</v>
-      </c>
-      <c r="I811" s="1">
-        <v>291.33999999999997</v>
-      </c>
-    </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A812" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B812" t="s">
-        <v>767</v>
-      </c>
-      <c r="C812" t="s">
-        <v>768</v>
-      </c>
-      <c r="D812">
-        <v>44881</v>
-      </c>
-      <c r="E812" t="s">
-        <v>769</v>
-      </c>
-      <c r="G812">
-        <v>42996</v>
-      </c>
-      <c r="H812" s="1">
-        <v>950.04</v>
-      </c>
-      <c r="I812" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A813" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B813" t="s">
-        <v>767</v>
-      </c>
-      <c r="C813" t="s">
-        <v>768</v>
-      </c>
-      <c r="D813">
-        <v>44882</v>
-      </c>
-      <c r="E813" t="s">
-        <v>758</v>
-      </c>
-      <c r="G813">
-        <v>42977</v>
-      </c>
-      <c r="H813" s="1">
-        <v>0</v>
-      </c>
-      <c r="I813" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A814" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B814" t="s">
-        <v>767</v>
-      </c>
-      <c r="C814" t="s">
-        <v>768</v>
-      </c>
-      <c r="D814">
-        <v>44883</v>
-      </c>
-      <c r="E814" t="s">
-        <v>758</v>
-      </c>
-      <c r="G814">
-        <v>42978</v>
-      </c>
-      <c r="H814" s="1">
-        <v>0</v>
-      </c>
-      <c r="I814" s="1">
-        <v>1044.05</v>
-      </c>
-    </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A815" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B815" t="s">
-        <v>767</v>
-      </c>
-      <c r="C815" t="s">
-        <v>768</v>
-      </c>
-      <c r="D815">
-        <v>44886</v>
-      </c>
-      <c r="E815" t="s">
-        <v>772</v>
-      </c>
-      <c r="G815">
-        <v>42999</v>
-      </c>
-      <c r="H815" s="1">
-        <v>1693.99</v>
-      </c>
-      <c r="I815" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A816" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B816" t="s">
-        <v>767</v>
-      </c>
-      <c r="C816" t="s">
-        <v>768</v>
-      </c>
-      <c r="D816">
-        <v>44888</v>
-      </c>
-      <c r="E816" t="s">
-        <v>758</v>
-      </c>
-      <c r="G816">
-        <v>42981</v>
-      </c>
-      <c r="H816" s="1">
-        <v>0</v>
-      </c>
-      <c r="I816" s="1">
-        <v>171.1</v>
-      </c>
-    </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A817" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B817" t="s">
-        <v>767</v>
-      </c>
-      <c r="C817" t="s">
-        <v>768</v>
-      </c>
-      <c r="D817">
-        <v>44896</v>
-      </c>
-      <c r="E817" t="s">
-        <v>758</v>
-      </c>
-      <c r="G817">
-        <v>43112</v>
-      </c>
-      <c r="H817" s="1">
-        <v>0</v>
-      </c>
-      <c r="I817" s="1">
-        <v>106.59</v>
-      </c>
-    </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A818" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B818" t="s">
-        <v>767</v>
-      </c>
-      <c r="C818" t="s">
-        <v>768</v>
-      </c>
-      <c r="D818">
-        <v>44902</v>
-      </c>
-      <c r="E818" t="s">
-        <v>758</v>
-      </c>
-      <c r="G818">
-        <v>43122</v>
-      </c>
-      <c r="H818" s="1">
-        <v>0</v>
-      </c>
-      <c r="I818" s="1">
-        <v>479.98</v>
-      </c>
-    </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A819" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B819" t="s">
-        <v>767</v>
-      </c>
-      <c r="C819" t="s">
-        <v>768</v>
-      </c>
-      <c r="D819">
-        <v>44908</v>
-      </c>
-      <c r="E819" t="s">
-        <v>758</v>
-      </c>
-      <c r="G819">
-        <v>43129</v>
-      </c>
-      <c r="H819" s="1">
-        <v>0</v>
-      </c>
-      <c r="I819" s="1">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A820" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B820" t="s">
-        <v>767</v>
-      </c>
-      <c r="C820" t="s">
-        <v>768</v>
-      </c>
-      <c r="D820">
-        <v>44914</v>
-      </c>
-      <c r="E820" t="s">
-        <v>769</v>
-      </c>
-      <c r="G820">
-        <v>43179</v>
-      </c>
-      <c r="H820" s="1">
-        <v>972.67</v>
-      </c>
-      <c r="I820" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A821" s="2">
-        <v>3372</v>
-      </c>
-      <c r="B821" t="s">
-        <v>767</v>
-      </c>
-      <c r="C821" t="s">
-        <v>768</v>
-      </c>
-      <c r="D821">
-        <v>44917</v>
-      </c>
-      <c r="E821" t="s">
-        <v>758</v>
-      </c>
-      <c r="G821">
-        <v>43141</v>
-      </c>
-      <c r="H821" s="1">
-        <v>0</v>
-      </c>
-      <c r="I821" s="1">
-        <v>365.4</v>
       </c>
     </row>
   </sheetData>
